--- a/tugas_excel.xlsx
+++ b/tugas_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FarSyaFad_Files\My Files\sekolah\SMA\MAN 5 Jakarta\Tugas\Informatika\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAC3A7-F0C5-4572-B19B-CF118CFC6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784CA6A-589B-46B0-BECE-B0E9D37CD97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0179A45-2A9F-4F9E-87C4-6219DA96339C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E0179A45-2A9F-4F9E-87C4-6219DA96339C}"/>
   </bookViews>
   <sheets>
     <sheet name="daftar_gaji" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>Daftar Gaji Karyawan</t>
   </si>
@@ -81,19 +81,10 @@
     <t>Suryono</t>
   </si>
   <si>
-    <t>Pramudya</t>
-  </si>
-  <si>
     <t>Vicky</t>
   </si>
   <si>
-    <t>Daffa</t>
-  </si>
-  <si>
     <t>Adilla</t>
-  </si>
-  <si>
-    <t>Alfarisi</t>
   </si>
   <si>
     <t>Jam Lembur</t>
@@ -115,15 +106,6 @@
   </si>
   <si>
     <t>Total Gaji Bersih</t>
-  </si>
-  <si>
-    <t>Gaisya</t>
-  </si>
-  <si>
-    <t>Meizza</t>
-  </si>
-  <si>
-    <t>Hilwa</t>
   </si>
   <si>
     <t>Total Gaji Seluruh Karwayan</t>
@@ -426,6 +408,24 @@
   </si>
   <si>
     <t>Menjual Aneka Makanan Dan Minuman</t>
+  </si>
+  <si>
+    <t>Danis</t>
+  </si>
+  <si>
+    <t>Zidan</t>
+  </si>
+  <si>
+    <t>Sumarno</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Riski</t>
+  </si>
+  <si>
+    <t>Nabil</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,6 +871,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -967,32 +1011,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,38 +1020,16 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12502,8 +12498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE69064-74B1-46C0-8209-18C47445B3AA}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12519,45 +12515,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6">
-      <c r="A1" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="19.8">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
@@ -12567,25 +12563,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -12629,7 +12625,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1">
         <v>48</v>
@@ -12697,7 +12693,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1">
         <v>62</v>
@@ -12731,7 +12727,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>39</v>
@@ -12765,7 +12761,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
@@ -12799,7 +12795,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1">
         <v>77</v>
@@ -12833,7 +12829,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1">
         <v>82</v>
@@ -12867,7 +12863,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1">
         <v>43</v>
@@ -12901,7 +12897,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11">
         <v>29</v>
@@ -12931,64 +12927,64 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="13">
         <f>SUM(I5:I14)</f>
         <v>204637500</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
-      <c r="A16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="14">
         <f>AVERAGE(I5:I15)</f>
         <v>37206818.18181818</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1">
-      <c r="A17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="13">
         <f>MAX(I5:I14)</f>
         <v>30855000</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4">
-      <c r="A18" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="16">
         <f>MIN(I5:I14)</f>
         <v>11432500</v>
@@ -13063,7 +13059,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="22"/>
     </row>
@@ -13136,8 +13132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300553FB-55AF-412E-8CC5-BC3E6C2CF51A}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13158,78 +13154,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.4" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="A1" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="20.399999999999999" thickBot="1">
-      <c r="A2" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="42" thickBot="1">
       <c r="A3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" thickBot="1">
@@ -13237,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15">
         <v>8000000</v>
@@ -13287,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15">
         <v>9000000</v>
@@ -13337,7 +13333,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="15">
         <v>10000000</v>
@@ -13387,7 +13383,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" s="15">
         <v>11000000</v>
@@ -13437,7 +13433,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="15">
         <v>12000000</v>
@@ -13487,7 +13483,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15">
         <v>10500000</v>
@@ -13537,7 +13533,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="15">
         <v>18000000</v>
@@ -13587,7 +13583,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="15">
         <v>12000000</v>
@@ -13637,7 +13633,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="15">
         <v>11500000</v>
@@ -13687,7 +13683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15">
         <v>17000000</v>
@@ -13805,7 +13801,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -13823,7 +13819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA2799-D78B-42DA-A8DA-9A24F8E4B5A8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -13840,93 +13836,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.8">
-      <c r="A1" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="A1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="32.4" customHeight="1" thickBot="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" thickBot="1">
@@ -13934,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" s="30">
         <v>2250000</v>
@@ -13981,7 +13977,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="30">
         <v>2500000</v>
@@ -14028,7 +14024,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" s="30">
         <v>3000000</v>
@@ -14075,7 +14071,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C8" s="30">
         <v>3250000</v>
@@ -14122,7 +14118,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="30">
         <v>3500000</v>
@@ -14169,7 +14165,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="30">
         <v>4000000</v>
@@ -14216,7 +14212,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="30">
         <v>4500000</v>
@@ -14263,7 +14259,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="30">
         <v>5000000</v>
@@ -14310,7 +14306,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="30">
         <v>5500000</v>
@@ -14357,7 +14353,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="30">
         <v>6000000</v>
@@ -14463,7 +14459,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -14485,10 +14481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8AAF2B-559B-41F4-BAA4-19EDD8C5E443}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14504,48 +14500,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4">
-      <c r="A1" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="A1" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1">
@@ -14553,22 +14549,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7">
         <v>14560</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="41">
         <v>43</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="42">
         <f>C4*E4</f>
         <v>72800</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="43">
         <f>C4*D4</f>
         <v>626080</v>
       </c>
@@ -14578,22 +14574,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7">
         <v>9520</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="41">
         <v>30</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="41">
         <v>4</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="42">
         <f t="shared" ref="F5:F8" si="0">C5*E5</f>
         <v>38080</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="43">
         <f t="shared" ref="G5:G8" si="1">C5*D5</f>
         <v>285600</v>
       </c>
@@ -14603,22 +14599,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7">
         <v>15120</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="41">
         <v>80</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="41">
         <v>11</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="42">
         <f t="shared" si="0"/>
         <v>166320</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="43">
         <f t="shared" si="1"/>
         <v>1209600</v>
       </c>
@@ -14628,22 +14624,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7">
         <v>28000</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="41">
         <v>120</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="41">
         <v>8</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>224000</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="43">
         <f t="shared" si="1"/>
         <v>3360000</v>
       </c>
@@ -14653,177 +14649,106 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7">
         <v>12320</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="41">
         <v>165</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="41">
         <v>12</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>147840</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="43">
         <f t="shared" si="1"/>
         <v>2032800</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1">
-      <c r="A9" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="69">
+      <c r="A9" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="8">
         <f>SUM(F4:F8)</f>
         <v>649040</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="8">
         <f>SUM(G4:G8)</f>
         <v>7514080</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="17"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="17"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="17"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="70"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="17"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="17"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="17"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" thickBot="1">
@@ -14834,6 +14759,11 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14849,10 +14779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A2A74B-4902-43A3-A1C9-49CDD38AA15F}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14867,44 +14797,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4">
-      <c r="A1" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="A1" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickBot="1">
@@ -14912,23 +14842,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="76">
+        <v>82</v>
+      </c>
+      <c r="C4" s="37">
         <v>120000</v>
       </c>
       <c r="D4" s="7">
         <v>5326</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="38">
         <f>C4*D4</f>
         <v>639120000</v>
       </c>
-      <c r="G4" s="79" t="str">
+      <c r="G4" s="39" t="str">
         <f>INDEX($B$4:$B$10,MATCH(H4,$E$4:$E$10,0))</f>
         <v>Kimia</v>
       </c>
-      <c r="H4" s="80" cm="1">
+      <c r="H4" s="40" cm="1">
         <f t="array" ref="H4:H8">LARGE($E$4:$E$10,{1;2;3;4;5})</f>
         <v>1220625000</v>
       </c>
@@ -14938,23 +14868,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="76">
+        <v>85</v>
+      </c>
+      <c r="C5" s="37">
         <v>85000</v>
       </c>
       <c r="D5" s="7">
         <v>2352</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="38">
         <f t="shared" ref="E5:E10" si="0">C5*D5</f>
         <v>199920000</v>
       </c>
-      <c r="G5" s="79" t="str">
+      <c r="G5" s="39" t="str">
         <f t="shared" ref="G5:G8" si="1">INDEX($B$4:$B$10,MATCH(H5,$E$4:$E$10,0))</f>
         <v>Ekonomi</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="40">
         <v>734080000</v>
       </c>
     </row>
@@ -14963,23 +14893,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="76">
+        <v>86</v>
+      </c>
+      <c r="C6" s="37">
         <v>75000</v>
       </c>
       <c r="D6" s="7">
         <v>3266</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="38">
         <f t="shared" si="0"/>
         <v>244950000</v>
       </c>
-      <c r="G6" s="79" t="str">
+      <c r="G6" s="39" t="str">
         <f>INDEX($B$4:$B$10,MATCH(H6,$E$4:$E$10,0))</f>
         <v>Fisika</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="40">
         <v>649050000</v>
       </c>
     </row>
@@ -14988,23 +14918,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="76">
+        <v>87</v>
+      </c>
+      <c r="C7" s="37">
         <v>150000</v>
       </c>
       <c r="D7" s="7">
         <v>4327</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="38">
         <f t="shared" si="0"/>
         <v>649050000</v>
       </c>
-      <c r="G7" s="79" t="str">
+      <c r="G7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>IPA</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="40">
         <v>639120000</v>
       </c>
     </row>
@@ -15013,23 +14943,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="76">
+        <v>88</v>
+      </c>
+      <c r="C8" s="37">
         <v>125000</v>
       </c>
       <c r="D8" s="7">
         <v>9765</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="38">
         <f t="shared" si="0"/>
         <v>1220625000</v>
       </c>
-      <c r="G8" s="79" t="str">
+      <c r="G8" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Geografi</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="40">
         <v>502040000</v>
       </c>
     </row>
@@ -15038,15 +14968,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="76">
+        <v>89</v>
+      </c>
+      <c r="C9" s="37">
         <v>160000</v>
       </c>
       <c r="D9" s="7">
         <v>4588</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="38">
         <f t="shared" si="0"/>
         <v>734080000</v>
       </c>
@@ -15056,157 +14986,115 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="76">
+        <v>90</v>
+      </c>
+      <c r="C10" s="37">
         <v>110000</v>
       </c>
       <c r="D10" s="7">
         <v>4564</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="38">
         <f t="shared" si="0"/>
         <v>502040000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" thickBot="1">
-      <c r="A11" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="68">
+      <c r="A11" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="34">
         <f>MAX(E4:E10)</f>
         <v>1220625000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" thickBot="1">
-      <c r="A12" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="68">
+      <c r="A12" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="34">
         <f>MIN(E4:E10)</f>
         <v>199920000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" thickBot="1">
-      <c r="A13" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="68">
+      <c r="A13" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="34">
         <f>AVERAGE(E4:E10)</f>
         <v>598540714.28571427</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="17"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="17"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="65"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="17"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="17"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="66"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="17"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="17"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="17"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="17"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="17"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="14.4" thickBot="1">
@@ -15215,6 +15103,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15231,10 +15124,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A9C279-5F78-4B96-892C-C7778E7B28C6}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15247,62 +15140,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4">
-      <c r="A1" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
+      <c r="A1" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" thickBot="1">
       <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="86">
+      <c r="B4" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="45">
         <v>5000</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="44">
         <v>5</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="44">
         <v>45</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="46">
         <f>C4*E4</f>
         <v>225000</v>
       </c>
@@ -15311,19 +15204,19 @@
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="86">
+      <c r="B5" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="45">
         <v>9000</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="44">
         <v>3</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="44">
         <v>44</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="46">
         <f t="shared" ref="F5:F8" si="0">C5*E5</f>
         <v>396000</v>
       </c>
@@ -15332,19 +15225,19 @@
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="86">
+      <c r="B6" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="45">
         <v>12000</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="44">
         <v>6</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="44">
         <v>32</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="46">
         <f t="shared" si="0"/>
         <v>384000</v>
       </c>
@@ -15353,19 +15246,19 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="86">
+      <c r="B7" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="45">
         <v>20000</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="44">
         <v>2</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="44">
         <v>64</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="46">
         <f t="shared" si="0"/>
         <v>1280000</v>
       </c>
@@ -15374,180 +15267,120 @@
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="86">
+      <c r="B8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="45">
         <v>2300</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="44">
         <v>4</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="44">
         <v>23</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="46">
         <f t="shared" si="0"/>
         <v>52900</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1">
-      <c r="A9" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="67">
+      <c r="A9" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="33">
         <f>SUM(F4:F8)</f>
         <v>2337900</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1">
-      <c r="A10" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="67">
+      <c r="A10" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="33">
         <f>MAX(F4:F8)</f>
         <v>1280000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1">
-      <c r="A11" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="67">
+      <c r="A11" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="33">
         <f>MIN(F4:F8)</f>
         <v>52900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="17"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="17"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="17"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="17"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="17"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="17"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="14.4" thickBot="1">
@@ -15557,6 +15390,11 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
